--- a/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3417.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values/tau_value3417.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>1.257261062203286</v>
+        <v>1.538652062416077</v>
       </c>
       <c r="B1">
-        <v>1.861172415657673</v>
+        <v>3.596222162246704</v>
       </c>
       <c r="C1">
-        <v>3.875811152156592</v>
+        <v>4.806467056274414</v>
       </c>
       <c r="D1">
-        <v>4.693763375187129</v>
+        <v>1.986483931541443</v>
       </c>
       <c r="E1">
-        <v>1.210646455483217</v>
+        <v>1.077107310295105</v>
       </c>
     </row>
   </sheetData>
